--- a/Labs/Lab_2.5.1/data.xlsx
+++ b/Labs/Lab_2.5.1/data.xlsx
@@ -5,7 +5,7 @@
   <workbookPr defaultThemeVersion="164011"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\kvv20\OneDrive\Документы\MIPT\Labs\Lab_2.5.1\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\kvv20\Documents\MIPT\Labs\Lab_2.5.1\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -73,15 +73,21 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="2">
+  <fills count="3">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFF00"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="1">
+  <borders count="10">
     <border>
       <left/>
       <right/>
@@ -89,18 +95,163 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="13">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="2" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="3" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="4" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Обычный" xfId="0" builtinId="0"/>
@@ -175,7 +326,38 @@
             </c:spPr>
             <c:trendlineType val="linear"/>
             <c:dispRSqr val="0"/>
-            <c:dispEq val="0"/>
+            <c:dispEq val="1"/>
+            <c:trendlineLbl>
+              <c:layout/>
+              <c:numFmt formatCode="General" sourceLinked="0"/>
+              <c:spPr>
+                <a:noFill/>
+                <a:ln>
+                  <a:noFill/>
+                </a:ln>
+                <a:effectLst/>
+              </c:spPr>
+              <c:txPr>
+                <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+                <a:lstStyle/>
+                <a:p>
+                  <a:pPr>
+                    <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                      <a:solidFill>
+                        <a:schemeClr val="tx1">
+                          <a:lumMod val="65000"/>
+                          <a:lumOff val="35000"/>
+                        </a:schemeClr>
+                      </a:solidFill>
+                      <a:latin typeface="+mn-lt"/>
+                      <a:ea typeface="+mn-ea"/>
+                      <a:cs typeface="+mn-cs"/>
+                    </a:defRPr>
+                  </a:pPr>
+                  <a:endParaRPr lang="ru-RU"/>
+                </a:p>
+              </c:txPr>
+            </c:trendlineLbl>
           </c:trendline>
           <c:xVal>
             <c:numRef>
@@ -271,6 +453,7 @@
         <c:axId val="1391701343"/>
         <c:scaling>
           <c:orientation val="minMax"/>
+          <c:min val="10"/>
         </c:scaling>
         <c:delete val="0"/>
         <c:axPos val="b"/>
@@ -288,6 +471,66 @@
             <a:effectLst/>
           </c:spPr>
         </c:majorGridlines>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="65000"/>
+                        <a:lumOff val="35000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="en-US" b="1"/>
+                  <a:t>T, </a:t>
+                </a:r>
+                <a:r>
+                  <a:rPr lang="ru-RU" b="1"/>
+                  <a:t>град цел</a:t>
+                </a:r>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:layout/>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1">
+                      <a:lumMod val="65000"/>
+                      <a:lumOff val="35000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="ru-RU"/>
+            </a:p>
+          </c:txPr>
+        </c:title>
         <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:majorTickMark val="none"/>
         <c:minorTickMark val="none"/>
@@ -350,6 +593,1058 @@
             <a:effectLst/>
           </c:spPr>
         </c:majorGridlines>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="65000"/>
+                        <a:lumOff val="35000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="ru-RU" b="1"/>
+                  <a:t>Сигма,</a:t>
+                </a:r>
+                <a:r>
+                  <a:rPr lang="ru-RU" b="1" baseline="0"/>
+                  <a:t> (Н</a:t>
+                </a:r>
+                <a:r>
+                  <a:rPr lang="en-US" b="1" baseline="0"/>
+                  <a:t>/</a:t>
+                </a:r>
+                <a:r>
+                  <a:rPr lang="ru-RU" b="1" baseline="0"/>
+                  <a:t>м)*10</a:t>
+                </a:r>
+                <a:r>
+                  <a:rPr lang="en-US" b="1" baseline="0"/>
+                  <a:t>^-3</a:t>
+                </a:r>
+                <a:endParaRPr lang="ru-RU" b="1"/>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:layout/>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1">
+                      <a:lumMod val="65000"/>
+                      <a:lumOff val="35000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="ru-RU"/>
+            </a:p>
+          </c:txPr>
+        </c:title>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="25000"/>
+                <a:lumOff val="75000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="ru-RU"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="1391701343"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="ru-RU"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart2.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="ru-RU"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:autoTitleDeleted val="1"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:scatterChart>
+        <c:scatterStyle val="lineMarker"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:spPr>
+            <a:ln w="25400" cap="rnd">
+              <a:noFill/>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent1"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:trendline>
+            <c:spPr>
+              <a:ln w="19050" cap="rnd">
+                <a:solidFill>
+                  <a:schemeClr val="accent1"/>
+                </a:solidFill>
+                <a:prstDash val="sysDot"/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+            <c:trendlineType val="linear"/>
+            <c:dispRSqr val="0"/>
+            <c:dispEq val="1"/>
+            <c:trendlineLbl>
+              <c:layout/>
+              <c:numFmt formatCode="General" sourceLinked="0"/>
+              <c:spPr>
+                <a:noFill/>
+                <a:ln>
+                  <a:noFill/>
+                </a:ln>
+                <a:effectLst/>
+              </c:spPr>
+              <c:txPr>
+                <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+                <a:lstStyle/>
+                <a:p>
+                  <a:pPr>
+                    <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                      <a:solidFill>
+                        <a:schemeClr val="tx1">
+                          <a:lumMod val="65000"/>
+                          <a:lumOff val="35000"/>
+                        </a:schemeClr>
+                      </a:solidFill>
+                      <a:latin typeface="+mn-lt"/>
+                      <a:ea typeface="+mn-ea"/>
+                      <a:cs typeface="+mn-cs"/>
+                    </a:defRPr>
+                  </a:pPr>
+                  <a:endParaRPr lang="ru-RU"/>
+                </a:p>
+              </c:txPr>
+            </c:trendlineLbl>
+          </c:trendline>
+          <c:xVal>
+            <c:numRef>
+              <c:f>Лист1!$B$10:$B$18</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="9"/>
+                <c:pt idx="0">
+                  <c:v>20</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>25</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>30</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>35</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>40</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>45</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>50</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>55</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>60</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>Лист1!$P$10:$P$18</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="9"/>
+                <c:pt idx="0">
+                  <c:v>-4.88</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>-6.1</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>-7.32</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>-8.5399999999999991</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>-9.76</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>-10.98</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>-12.2</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>-13.42</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>-14.64</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-F433-4BA1-8741-E2750DBA9F92}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:axId val="1391701343"/>
+        <c:axId val="1391719231"/>
+      </c:scatterChart>
+      <c:valAx>
+        <c:axId val="1391701343"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+          <c:min val="10"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="65000"/>
+                        <a:lumOff val="35000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="en-US" b="1"/>
+                  <a:t>T, </a:t>
+                </a:r>
+                <a:r>
+                  <a:rPr lang="ru-RU" b="1"/>
+                  <a:t>град цел</a:t>
+                </a:r>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:layout/>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1">
+                      <a:lumMod val="65000"/>
+                      <a:lumOff val="35000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="ru-RU"/>
+            </a:p>
+          </c:txPr>
+        </c:title>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="25000"/>
+                <a:lumOff val="75000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="ru-RU"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="1391719231"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+      <c:valAx>
+        <c:axId val="1391719231"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="65000"/>
+                        <a:lumOff val="35000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="en-US" b="1" baseline="0"/>
+                  <a:t>q,</a:t>
+                </a:r>
+                <a:r>
+                  <a:rPr lang="ru-RU" b="1" baseline="0"/>
+                  <a:t> (Н</a:t>
+                </a:r>
+                <a:r>
+                  <a:rPr lang="en-US" b="1" baseline="0"/>
+                  <a:t>/</a:t>
+                </a:r>
+                <a:r>
+                  <a:rPr lang="ru-RU" b="1" baseline="0"/>
+                  <a:t>м)*10</a:t>
+                </a:r>
+                <a:r>
+                  <a:rPr lang="en-US" b="1" baseline="0"/>
+                  <a:t>^-3</a:t>
+                </a:r>
+                <a:endParaRPr lang="ru-RU" b="1"/>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:layout/>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1">
+                      <a:lumMod val="65000"/>
+                      <a:lumOff val="35000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="ru-RU"/>
+            </a:p>
+          </c:txPr>
+        </c:title>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="25000"/>
+                <a:lumOff val="75000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="ru-RU"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="1391701343"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="ru-RU"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart3.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="ru-RU"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:autoTitleDeleted val="1"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:scatterChart>
+        <c:scatterStyle val="lineMarker"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:spPr>
+            <a:ln w="25400" cap="rnd">
+              <a:noFill/>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent1"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:trendline>
+            <c:spPr>
+              <a:ln w="19050" cap="rnd">
+                <a:solidFill>
+                  <a:schemeClr val="accent1"/>
+                </a:solidFill>
+                <a:prstDash val="sysDot"/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+            <c:trendlineType val="linear"/>
+            <c:dispRSqr val="0"/>
+            <c:dispEq val="1"/>
+            <c:trendlineLbl>
+              <c:layout>
+                <c:manualLayout>
+                  <c:x val="-5.6211723534558178E-4"/>
+                  <c:y val="5.1063356663750323E-2"/>
+                </c:manualLayout>
+              </c:layout>
+              <c:numFmt formatCode="General" sourceLinked="0"/>
+              <c:spPr>
+                <a:noFill/>
+                <a:ln>
+                  <a:noFill/>
+                </a:ln>
+                <a:effectLst/>
+              </c:spPr>
+              <c:txPr>
+                <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+                <a:lstStyle/>
+                <a:p>
+                  <a:pPr>
+                    <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                      <a:solidFill>
+                        <a:schemeClr val="tx1">
+                          <a:lumMod val="65000"/>
+                          <a:lumOff val="35000"/>
+                        </a:schemeClr>
+                      </a:solidFill>
+                      <a:latin typeface="+mn-lt"/>
+                      <a:ea typeface="+mn-ea"/>
+                      <a:cs typeface="+mn-cs"/>
+                    </a:defRPr>
+                  </a:pPr>
+                  <a:endParaRPr lang="ru-RU"/>
+                </a:p>
+              </c:txPr>
+            </c:trendlineLbl>
+          </c:trendline>
+          <c:xVal>
+            <c:numRef>
+              <c:f>Лист1!$B$10:$B$18</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="9"/>
+                <c:pt idx="0">
+                  <c:v>20</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>25</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>30</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>35</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>40</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>45</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>50</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>55</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>60</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>Лист1!$Q$10:$Q$18</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="9"/>
+                <c:pt idx="0">
+                  <c:v>76.052500000000009</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>74.096750000000014</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>71.773124999999993</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>69.4495</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>66.757999999999996</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>64.434374999999974</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>61.742874999999984</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>59.419249999999991</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>56.72775</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-7E7E-4FAC-B754-1D220D40CA2F}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:axId val="1391701343"/>
+        <c:axId val="1391719231"/>
+      </c:scatterChart>
+      <c:valAx>
+        <c:axId val="1391701343"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+          <c:min val="10"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="65000"/>
+                        <a:lumOff val="35000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="en-US" b="1"/>
+                  <a:t>T, </a:t>
+                </a:r>
+                <a:r>
+                  <a:rPr lang="ru-RU" b="1"/>
+                  <a:t>град цел</a:t>
+                </a:r>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:layout/>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1">
+                      <a:lumMod val="65000"/>
+                      <a:lumOff val="35000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="ru-RU"/>
+            </a:p>
+          </c:txPr>
+        </c:title>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="25000"/>
+                <a:lumOff val="75000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="ru-RU"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="1391719231"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+      <c:valAx>
+        <c:axId val="1391719231"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="65000"/>
+                        <a:lumOff val="35000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="en-US" b="1" baseline="0"/>
+                  <a:t>U/F,</a:t>
+                </a:r>
+                <a:r>
+                  <a:rPr lang="ru-RU" b="1" baseline="0"/>
+                  <a:t> (Дж</a:t>
+                </a:r>
+                <a:r>
+                  <a:rPr lang="en-US" b="1" baseline="0"/>
+                  <a:t>/</a:t>
+                </a:r>
+                <a:r>
+                  <a:rPr lang="ru-RU" b="1" baseline="0"/>
+                  <a:t>м</a:t>
+                </a:r>
+                <a:r>
+                  <a:rPr lang="en-US" b="1" baseline="0"/>
+                  <a:t>^2</a:t>
+                </a:r>
+                <a:r>
+                  <a:rPr lang="ru-RU" b="1" baseline="0"/>
+                  <a:t>)*10</a:t>
+                </a:r>
+                <a:r>
+                  <a:rPr lang="en-US" b="1" baseline="0"/>
+                  <a:t>^-3</a:t>
+                </a:r>
+                <a:endParaRPr lang="ru-RU" b="1"/>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:layout/>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1">
+                      <a:lumMod val="65000"/>
+                      <a:lumOff val="35000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="ru-RU"/>
+            </a:p>
+          </c:txPr>
+        </c:title>
         <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:majorTickMark val="none"/>
         <c:minorTickMark val="none"/>
@@ -476,7 +1771,1119 @@
 </cs:colorStyle>
 </file>
 
+<file path=xl/charts/colors2.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
+<file path=xl/charts/colors3.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
 <file path=xl/charts/style1.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="240">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="75000"/>
+          <a:lumOff val="25000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="50000"/>
+            <a:lumOff val="50000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDot"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
+<file path=xl/charts/style2.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="240">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="75000"/>
+          <a:lumOff val="25000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="50000"/>
+            <a:lumOff val="50000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDot"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
+<file path=xl/charts/style3.xml><?xml version="1.0" encoding="utf-8"?>
 <cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="240">
   <cs:axisTitle>
     <cs:lnRef idx="0"/>
@@ -1019,6 +3426,70 @@
       <a:graphic>
         <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
           <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>18</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>8</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>25</xdr:col>
+      <xdr:colOff>38100</xdr:colOff>
+      <xdr:row>23</xdr:row>
+      <xdr:rowOff>28575</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="4" name="Диаграмма 3"/>
+        <xdr:cNvGraphicFramePr>
+          <a:graphicFrameLocks/>
+        </xdr:cNvGraphicFramePr>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId2"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>26</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>8</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>33</xdr:col>
+      <xdr:colOff>38100</xdr:colOff>
+      <xdr:row>23</xdr:row>
+      <xdr:rowOff>28575</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="5" name="Диаграмма 4"/>
+        <xdr:cNvGraphicFramePr>
+          <a:graphicFrameLocks/>
+        </xdr:cNvGraphicFramePr>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId3"/>
         </a:graphicData>
       </a:graphic>
     </xdr:graphicFrame>
@@ -1290,10 +3761,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:N18"/>
+  <dimension ref="A1:Q18"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F10" sqref="F10"/>
+    <sheetView tabSelected="1" topLeftCell="R1" workbookViewId="0">
+      <selection activeCell="AI13" sqref="AI13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
@@ -1305,96 +3776,115 @@
     <col min="9" max="9" width="14.19921875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:14" x14ac:dyDescent="0.45">
+    <row r="1" spans="1:17" x14ac:dyDescent="0.45">
       <c r="A1" t="s">
         <v>0</v>
       </c>
-      <c r="D1" t="s">
+      <c r="D1" s="7" t="s">
         <v>1</v>
       </c>
-      <c r="E1" t="s">
+      <c r="E1" s="8" t="s">
         <v>2</v>
       </c>
-      <c r="F1" t="s">
+      <c r="F1" s="9" t="s">
         <v>4</v>
       </c>
       <c r="G1" t="s">
         <v>5</v>
       </c>
-      <c r="H1" t="s">
+      <c r="H1" s="12" t="s">
         <v>6</v>
       </c>
-      <c r="I1" t="s">
+      <c r="I1" s="12" t="s">
         <v>7</v>
       </c>
-      <c r="J1" t="s">
+      <c r="J1" s="12" t="s">
         <v>8</v>
       </c>
-      <c r="K1" t="s">
+      <c r="K1" s="12" t="s">
         <v>7</v>
       </c>
-      <c r="L1" t="s">
+      <c r="L1" s="12" t="s">
         <v>1</v>
       </c>
-      <c r="M1" t="s">
+      <c r="M1" s="12" t="s">
         <v>2</v>
       </c>
-      <c r="N1" t="s">
+      <c r="N1" s="12" t="s">
         <v>10</v>
       </c>
+      <c r="P1">
+        <v>-0.24399999999999999</v>
+      </c>
     </row>
-    <row r="2" spans="1:14" x14ac:dyDescent="0.45">
+    <row r="2" spans="1:17" x14ac:dyDescent="0.45">
       <c r="A2">
         <v>37</v>
       </c>
-      <c r="D2">
+      <c r="B2">
+        <f xml:space="preserve"> _xlfn.STDEV.S(D2:D6)</f>
+        <v>0.83666002653407556</v>
+      </c>
+      <c r="C2">
+        <f xml:space="preserve"> _xlfn.STDEV.S(F2:F6)</f>
+        <v>1.7137550007545667E-2</v>
+      </c>
+      <c r="D2" s="2">
         <v>39</v>
       </c>
-      <c r="E2">
+      <c r="E2" s="1">
         <f xml:space="preserve"> D2*789.5*9.8*0.2/1000</f>
         <v>60.349380000000004</v>
       </c>
-      <c r="F2">
+      <c r="F2" s="3">
         <f>2*22.78/(E2)</f>
         <v>0.75493733324186596</v>
       </c>
       <c r="G2">
         <v>0.55000000000000004</v>
       </c>
-      <c r="H2">
+      <c r="H2" s="1">
         <v>1.5</v>
       </c>
-      <c r="I2">
+      <c r="I2" s="1">
         <v>107</v>
       </c>
-      <c r="J2">
+      <c r="J2" s="1">
         <v>0.7</v>
       </c>
-      <c r="K2">
+      <c r="K2" s="1">
         <v>146</v>
       </c>
-      <c r="L2">
+      <c r="L2" s="1">
         <f>K2-I2</f>
         <v>39</v>
       </c>
-      <c r="M2">
+      <c r="M2" s="1">
         <f>L2*9.81*0.2</f>
         <v>76.518000000000015</v>
       </c>
-      <c r="N2">
+      <c r="N2" s="1">
         <f>(H2-J2)/100*1000*9.81</f>
         <v>78.48</v>
       </c>
     </row>
-    <row r="3" spans="1:14" x14ac:dyDescent="0.45">
-      <c r="D3">
+    <row r="3" spans="1:17" x14ac:dyDescent="0.45">
+      <c r="B3">
+        <f xml:space="preserve"> AVERAGE(D2:D6)</f>
+        <v>37.799999999999997</v>
+      </c>
+      <c r="C3">
+        <f xml:space="preserve">  AVERAGE(F2:F6)</f>
+        <v>0.77920701138022463</v>
+      </c>
+      <c r="D3" s="2">
         <v>37</v>
       </c>
-      <c r="E3">
+      <c r="E3" s="1">
         <f t="shared" ref="E3:E6" si="0" xml:space="preserve"> D3*789.5*9.8*0.2/1000</f>
         <v>57.254540000000006</v>
       </c>
-      <c r="F3">
+      <c r="F3" s="3">
         <f t="shared" ref="F3:F6" si="1">2*22.78/(E3)</f>
         <v>0.79574475666034516</v>
       </c>
@@ -1402,15 +3892,15 @@
         <v>76.518000000000015</v>
       </c>
     </row>
-    <row r="4" spans="1:14" x14ac:dyDescent="0.45">
-      <c r="D4">
+    <row r="4" spans="1:17" x14ac:dyDescent="0.45">
+      <c r="D4" s="2">
         <v>38</v>
       </c>
-      <c r="E4">
+      <c r="E4" s="1">
         <f t="shared" si="0"/>
         <v>58.801960000000015</v>
       </c>
-      <c r="F4">
+      <c r="F4" s="3">
         <f t="shared" si="1"/>
         <v>0.77480410516928333</v>
       </c>
@@ -1418,15 +3908,15 @@
         <v>76.518000000000015</v>
       </c>
     </row>
-    <row r="5" spans="1:14" x14ac:dyDescent="0.45">
-      <c r="D5">
+    <row r="5" spans="1:17" x14ac:dyDescent="0.45">
+      <c r="D5" s="2">
         <v>38</v>
       </c>
-      <c r="E5">
+      <c r="E5" s="1">
         <f t="shared" si="0"/>
         <v>58.801960000000015</v>
       </c>
-      <c r="F5">
+      <c r="F5" s="3">
         <f t="shared" si="1"/>
         <v>0.77480410516928333</v>
       </c>
@@ -1434,15 +3924,15 @@
         <v>76.518000000000015</v>
       </c>
     </row>
-    <row r="6" spans="1:14" x14ac:dyDescent="0.45">
-      <c r="D6">
+    <row r="6" spans="1:17" ht="14.65" thickBot="1" x14ac:dyDescent="0.5">
+      <c r="D6" s="4">
         <v>37</v>
       </c>
-      <c r="E6">
+      <c r="E6" s="5">
         <f t="shared" si="0"/>
         <v>57.254540000000006</v>
       </c>
-      <c r="F6">
+      <c r="F6" s="6">
         <f t="shared" si="1"/>
         <v>0.79574475666034516</v>
       </c>
@@ -1450,186 +3940,258 @@
         <v>76.518000000000015</v>
       </c>
     </row>
-    <row r="7" spans="1:14" x14ac:dyDescent="0.45">
+    <row r="7" spans="1:17" x14ac:dyDescent="0.45">
       <c r="M7">
         <v>76.518000000000015</v>
       </c>
     </row>
-    <row r="8" spans="1:14" x14ac:dyDescent="0.45">
+    <row r="8" spans="1:17" x14ac:dyDescent="0.45">
       <c r="M8">
         <v>76.518000000000015</v>
       </c>
     </row>
-    <row r="9" spans="1:14" x14ac:dyDescent="0.45">
-      <c r="B9" s="1" t="s">
+    <row r="9" spans="1:17" x14ac:dyDescent="0.45">
+      <c r="B9" s="10" t="s">
         <v>9</v>
       </c>
-      <c r="C9" s="2" t="s">
+      <c r="C9" s="11" t="s">
         <v>1</v>
       </c>
-      <c r="D9" t="s">
+      <c r="D9" s="12" t="s">
         <v>2</v>
       </c>
-      <c r="E9" t="s">
+      <c r="E9" s="12" t="s">
         <v>3</v>
       </c>
       <c r="M9">
         <v>76.518000000000015</v>
       </c>
     </row>
-    <row r="10" spans="1:14" x14ac:dyDescent="0.45">
-      <c r="B10">
+    <row r="10" spans="1:17" x14ac:dyDescent="0.45">
+      <c r="B10" s="1">
         <v>20</v>
       </c>
-      <c r="C10">
+      <c r="C10" s="1">
         <v>149</v>
       </c>
-      <c r="D10">
+      <c r="D10" s="1">
         <f xml:space="preserve"> C10*9.81*0.2</f>
         <v>292.33800000000002</v>
       </c>
-      <c r="E10">
+      <c r="E10" s="1">
         <f>(D10-M2)*0.75/2</f>
         <v>80.932500000000005</v>
       </c>
       <c r="M10">
         <v>76.518000000000015</v>
       </c>
+      <c r="P10">
+        <f xml:space="preserve"> B10*$P$1</f>
+        <v>-4.88</v>
+      </c>
+      <c r="Q10">
+        <f xml:space="preserve"> E10+P10</f>
+        <v>76.052500000000009</v>
+      </c>
     </row>
-    <row r="11" spans="1:14" x14ac:dyDescent="0.45">
-      <c r="B11">
+    <row r="11" spans="1:17" x14ac:dyDescent="0.45">
+      <c r="B11" s="1">
         <f>B10+5</f>
         <v>25</v>
       </c>
-      <c r="C11">
+      <c r="C11" s="1">
         <v>148</v>
       </c>
-      <c r="D11">
+      <c r="D11" s="1">
         <f t="shared" ref="D11:D18" si="2" xml:space="preserve"> C11*9.81*0.2</f>
         <v>290.37600000000003</v>
       </c>
-      <c r="E11">
+      <c r="E11" s="1">
         <f t="shared" ref="E11:E18" si="3">(D11-M3)*0.75/2</f>
         <v>80.196750000000009</v>
       </c>
+      <c r="P11">
+        <f t="shared" ref="P11:P18" si="4" xml:space="preserve"> B11*$P$1</f>
+        <v>-6.1</v>
+      </c>
+      <c r="Q11">
+        <f t="shared" ref="Q11:Q18" si="5" xml:space="preserve"> E11+P11</f>
+        <v>74.096750000000014</v>
+      </c>
     </row>
-    <row r="12" spans="1:14" x14ac:dyDescent="0.45">
-      <c r="B12">
-        <f t="shared" ref="B12:B18" si="4">B11+5</f>
+    <row r="12" spans="1:17" x14ac:dyDescent="0.45">
+      <c r="B12" s="1">
+        <f t="shared" ref="B12:B18" si="6">B11+5</f>
         <v>30</v>
       </c>
-      <c r="C12">
+      <c r="C12" s="1">
         <v>146.5</v>
       </c>
-      <c r="D12">
+      <c r="D12" s="1">
         <f t="shared" si="2"/>
         <v>287.43299999999999</v>
       </c>
-      <c r="E12">
+      <c r="E12" s="1">
         <f t="shared" si="3"/>
         <v>79.093124999999986</v>
       </c>
+      <c r="P12">
+        <f t="shared" si="4"/>
+        <v>-7.32</v>
+      </c>
+      <c r="Q12">
+        <f t="shared" si="5"/>
+        <v>71.773124999999993</v>
+      </c>
     </row>
-    <row r="13" spans="1:14" x14ac:dyDescent="0.45">
-      <c r="B13">
-        <f t="shared" si="4"/>
+    <row r="13" spans="1:17" x14ac:dyDescent="0.45">
+      <c r="B13" s="1">
+        <f t="shared" si="6"/>
         <v>35</v>
       </c>
-      <c r="C13">
+      <c r="C13" s="1">
         <v>145</v>
       </c>
-      <c r="D13">
+      <c r="D13" s="1">
         <f t="shared" si="2"/>
         <v>284.49</v>
       </c>
-      <c r="E13">
+      <c r="E13" s="1">
         <f t="shared" si="3"/>
         <v>77.989499999999992</v>
       </c>
+      <c r="P13">
+        <f t="shared" si="4"/>
+        <v>-8.5399999999999991</v>
+      </c>
+      <c r="Q13">
+        <f t="shared" si="5"/>
+        <v>69.4495</v>
+      </c>
     </row>
-    <row r="14" spans="1:14" x14ac:dyDescent="0.45">
-      <c r="B14">
-        <f t="shared" si="4"/>
+    <row r="14" spans="1:17" x14ac:dyDescent="0.45">
+      <c r="B14" s="1">
+        <f t="shared" si="6"/>
         <v>40</v>
       </c>
-      <c r="C14">
+      <c r="C14" s="1">
         <v>143</v>
       </c>
-      <c r="D14">
+      <c r="D14" s="1">
         <f t="shared" si="2"/>
         <v>280.56600000000003</v>
       </c>
-      <c r="E14">
+      <c r="E14" s="1">
         <f t="shared" si="3"/>
         <v>76.518000000000001</v>
       </c>
+      <c r="P14">
+        <f t="shared" si="4"/>
+        <v>-9.76</v>
+      </c>
+      <c r="Q14">
+        <f t="shared" si="5"/>
+        <v>66.757999999999996</v>
+      </c>
     </row>
-    <row r="15" spans="1:14" x14ac:dyDescent="0.45">
-      <c r="B15">
-        <f t="shared" si="4"/>
+    <row r="15" spans="1:17" x14ac:dyDescent="0.45">
+      <c r="B15" s="1">
+        <f t="shared" si="6"/>
         <v>45</v>
       </c>
-      <c r="C15">
+      <c r="C15" s="1">
         <v>141.5</v>
       </c>
-      <c r="D15">
+      <c r="D15" s="1">
         <f t="shared" si="2"/>
         <v>277.62299999999999</v>
       </c>
-      <c r="E15">
+      <c r="E15" s="1">
         <f t="shared" si="3"/>
         <v>75.414374999999978</v>
       </c>
+      <c r="P15">
+        <f t="shared" si="4"/>
+        <v>-10.98</v>
+      </c>
+      <c r="Q15">
+        <f t="shared" si="5"/>
+        <v>64.434374999999974</v>
+      </c>
     </row>
-    <row r="16" spans="1:14" x14ac:dyDescent="0.45">
-      <c r="B16">
-        <f t="shared" si="4"/>
+    <row r="16" spans="1:17" x14ac:dyDescent="0.45">
+      <c r="B16" s="1">
+        <f t="shared" si="6"/>
         <v>50</v>
       </c>
-      <c r="C16">
+      <c r="C16" s="1">
         <v>139.5</v>
       </c>
-      <c r="D16">
+      <c r="D16" s="1">
         <f t="shared" si="2"/>
         <v>273.69900000000001</v>
       </c>
-      <c r="E16">
+      <c r="E16" s="1">
         <f t="shared" si="3"/>
         <v>73.942874999999987</v>
       </c>
+      <c r="P16">
+        <f t="shared" si="4"/>
+        <v>-12.2</v>
+      </c>
+      <c r="Q16">
+        <f t="shared" si="5"/>
+        <v>61.742874999999984</v>
+      </c>
     </row>
-    <row r="17" spans="2:5" x14ac:dyDescent="0.45">
-      <c r="B17">
-        <f t="shared" si="4"/>
+    <row r="17" spans="2:17" x14ac:dyDescent="0.45">
+      <c r="B17" s="1">
+        <f t="shared" si="6"/>
         <v>55</v>
       </c>
-      <c r="C17">
+      <c r="C17" s="1">
         <v>138</v>
       </c>
-      <c r="D17">
+      <c r="D17" s="1">
         <f t="shared" si="2"/>
         <v>270.75600000000003</v>
       </c>
-      <c r="E17">
+      <c r="E17" s="1">
         <f t="shared" si="3"/>
         <v>72.839249999999993</v>
       </c>
+      <c r="P17">
+        <f t="shared" si="4"/>
+        <v>-13.42</v>
+      </c>
+      <c r="Q17">
+        <f t="shared" si="5"/>
+        <v>59.419249999999991</v>
+      </c>
     </row>
-    <row r="18" spans="2:5" x14ac:dyDescent="0.45">
-      <c r="B18">
-        <f t="shared" si="4"/>
+    <row r="18" spans="2:17" x14ac:dyDescent="0.45">
+      <c r="B18" s="1">
+        <f t="shared" si="6"/>
         <v>60</v>
       </c>
-      <c r="C18">
+      <c r="C18" s="1">
         <v>136</v>
       </c>
-      <c r="D18">
+      <c r="D18" s="1">
         <f t="shared" si="2"/>
         <v>266.83200000000005</v>
       </c>
-      <c r="E18">
+      <c r="E18" s="1">
         <f t="shared" si="3"/>
         <v>71.367750000000001</v>
+      </c>
+      <c r="P18">
+        <f t="shared" si="4"/>
+        <v>-14.64</v>
+      </c>
+      <c r="Q18">
+        <f t="shared" si="5"/>
+        <v>56.72775</v>
       </c>
     </row>
   </sheetData>
